--- a/biology/Botanique/Bulbophyllum_scaberulum/Bulbophyllum_scaberulum.xlsx
+++ b/biology/Botanique/Bulbophyllum_scaberulum/Bulbophyllum_scaberulum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bulbophyllum scaberulum (Rolfe) Bolus est une espèce d'orchidées du genre Bulbophyllum, présente dans de nombreux pays d'Afrique tropicale[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bulbophyllum scaberulum (Rolfe) Bolus est une espèce d'orchidées du genre Bulbophyllum, présente dans de nombreux pays d'Afrique tropicale. 
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (6 décembre 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (6 décembre 2017) :
 variété Bulbophyllum scaberulum var. crotalicaudatum
 variété Bulbophyllum scaberulum var. fuerstenbergianum
 variété Bulbophyllum scaberulum var. scaberulum
-Selon The Plant List            (6 décembre 2017)[1] :
+Selon The Plant List            (6 décembre 2017) :
 variété Bulbophyllum scaberulum var. fuerstenbergianum (De Wild.) J.J.Verm.
-Selon Tropicos                                           (6 décembre 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Bulbophyllum scaberulum var. album Pérez-Vera
 variété Bulbophyllum scaberulum var. crotalicaudatum J.J. Verm.
 variété Bulbophyllum scaberulum var. fuerstenbergianum (De Wild.) J.J. Verm.
@@ -551,10 +565,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce fuerstenbergianum, assez rare, est présente au Cameroun, au Nigeria, en Guinée équatoriale (Bioko) et en République démocratique du Congo[5].
-La sous-espèce scaberulum a été observée en Guinée, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Ghana, au Nigeria, au Cameroun, sur l'île de Sao Tomé (Sao Tomé-et-Principe), au Gabon, en République du Congo, en République démocratique du Congo, Afrique de l'Est et Afrique zambézienne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce fuerstenbergianum, assez rare, est présente au Cameroun, au Nigeria, en Guinée équatoriale (Bioko) et en République démocratique du Congo.
+La sous-espèce scaberulum a été observée en Guinée, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Ghana, au Nigeria, au Cameroun, sur l'île de Sao Tomé (Sao Tomé-et-Principe), au Gabon, en République du Congo, en République démocratique du Congo, Afrique de l'Est et Afrique zambézienne.
 </t>
         </is>
       </c>
